--- a/banco/BaseFuncionarios.xlsx
+++ b/banco/BaseFuncionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoteMeta07\Desktop\Agent\banco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A768A5-CFA8-43E9-8018-FD4EC89A80E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA24C8-52EF-4999-AB8A-24263FA6DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$V$1:$V$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$V$1:$V$496</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="605">
   <si>
     <t>VT</t>
   </si>
@@ -1848,6 +1848,9 @@
   </si>
   <si>
     <t>Data_de_demissao</t>
+  </si>
+  <si>
+    <t>Davi</t>
   </si>
 </sst>
 </file>
@@ -1892,10 +1895,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1937,8 +1941,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DBB79F2-AC11-4C76-8928-EA5B0E2D94C1}" name="BaseFuncionarios" displayName="BaseFuncionarios" ref="A1:W495" totalsRowShown="0">
-  <autoFilter ref="A1:W495" xr:uid="{09A30315-AEEB-4B95-A787-F020DAA92427}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DBB79F2-AC11-4C76-8928-EA5B0E2D94C1}" name="BaseFuncionarios" displayName="BaseFuncionarios" ref="A1:W496" totalsRowShown="0">
+  <autoFilter ref="A1:W496" xr:uid="{09A30315-AEEB-4B95-A787-F020DAA92427}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W495">
     <sortCondition ref="K1:K495"/>
   </sortState>
@@ -2234,11 +2238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W495"/>
+  <dimension ref="A1:W496"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A466" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35177,6 +35181,21 @@
       <c r="W495">
         <v>5</v>
       </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>2</v>
+      </c>
+      <c r="B496" t="s">
+        <v>604</v>
+      </c>
+      <c r="E496" s="1"/>
+      <c r="G496" s="1"/>
+      <c r="H496" s="1"/>
+      <c r="J496" s="3"/>
+      <c r="O496" s="3"/>
+      <c r="P496" s="3"/>
+      <c r="V496" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
